--- a/uk/ons/datadownload (2).xlsx
+++ b/uk/ons/datadownload (2).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\dvc900-999\dvc998-weeklydeaths\fig4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\dvc1000-1099\dvc1010-weeklydeaths\fig4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0096AFF-51D7-41A2-9C88-62F1831BCE46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8A46B5-54D3-4DD0-B66B-C44307F0645F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E4E900D1-D748-4E58-B008-C981EB2E2990}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{E4E900D1-D748-4E58-B008-C981EB2E2990}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
   <si>
     <t>North East</t>
   </si>
@@ -210,13 +210,16 @@
     <t>Week 38</t>
   </si>
   <si>
-    <t>Number of deaths in Wales and regions in England, registered between 28 December 2019 to 25 September 2020</t>
-  </si>
-  <si>
     <t>Week 39</t>
   </si>
   <si>
-    <t xml:space="preserve">Figure 4: The number of deaths in Week 39 increased in Wales and the majority of the English regions </t>
+    <t>Number of deaths in Wales and regions in England, registered between 28 December 2019 to 2 October 2020</t>
+  </si>
+  <si>
+    <t>Week 40</t>
+  </si>
+  <si>
+    <t>Figure 4: The number of deaths in Week 40 increased in Wales and most of the English regions</t>
   </si>
 </sst>
 </file>
@@ -322,7 +325,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -647,23 +650,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F68DF2-C770-4051-9B1B-AABCDF9E7609}">
-  <dimension ref="A1:CK49"/>
+  <dimension ref="A1:CK50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4647,103 +4650,198 @@
         <v>575</v>
       </c>
     </row>
-    <row r="47" spans="1:89" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B47" s="11">
+    <row r="47" spans="1:89" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="9">
         <v>514</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C47" s="9">
         <v>13</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D47" s="9">
         <v>497</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E47" s="9">
         <v>1271</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F47" s="9">
         <v>60</v>
       </c>
-      <c r="G47" s="11">
+      <c r="G47" s="9">
         <v>1270</v>
       </c>
-      <c r="H47" s="11">
+      <c r="H47" s="9">
         <v>965</v>
       </c>
-      <c r="I47" s="11">
+      <c r="I47" s="9">
         <v>29</v>
       </c>
-      <c r="J47" s="11">
+      <c r="J47" s="9">
         <v>909</v>
       </c>
-      <c r="K47" s="11">
+      <c r="K47" s="9">
         <v>825</v>
       </c>
-      <c r="L47" s="11">
+      <c r="L47" s="9">
         <v>11</v>
       </c>
-      <c r="M47" s="11">
+      <c r="M47" s="9">
         <v>794</v>
       </c>
-      <c r="N47" s="11">
+      <c r="N47" s="9">
         <v>1036</v>
       </c>
-      <c r="O47" s="11">
+      <c r="O47" s="9">
         <v>33</v>
       </c>
-      <c r="P47" s="11">
+      <c r="P47" s="9">
         <v>984</v>
       </c>
-      <c r="Q47" s="11">
+      <c r="Q47" s="9">
         <v>963</v>
       </c>
-      <c r="R47" s="11">
+      <c r="R47" s="9">
         <v>10</v>
       </c>
-      <c r="S47" s="11">
+      <c r="S47" s="9">
         <v>980</v>
       </c>
-      <c r="T47" s="11">
+      <c r="T47" s="9">
         <v>869</v>
       </c>
-      <c r="U47" s="11">
+      <c r="U47" s="9">
         <v>23</v>
       </c>
-      <c r="V47" s="11">
+      <c r="V47" s="9">
         <v>872</v>
       </c>
-      <c r="W47" s="11">
+      <c r="W47" s="9">
         <v>1521</v>
       </c>
-      <c r="X47" s="11">
+      <c r="X47" s="9">
         <v>16</v>
       </c>
-      <c r="Y47" s="11">
+      <c r="Y47" s="9">
         <v>1426</v>
       </c>
-      <c r="Z47" s="11">
+      <c r="Z47" s="9">
         <v>1041</v>
       </c>
-      <c r="AA47" s="11">
+      <c r="AA47" s="9">
         <v>8</v>
       </c>
-      <c r="AB47" s="11">
+      <c r="AB47" s="9">
         <v>1011</v>
       </c>
-      <c r="AC47" s="11">
+      <c r="AC47" s="9">
         <v>617</v>
       </c>
-      <c r="AD47" s="11">
+      <c r="AD47" s="9">
         <v>12</v>
       </c>
-      <c r="AE47" s="11">
+      <c r="AE47" s="9">
         <v>604</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
+    <row r="48" spans="1:89" s="9" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" s="11">
+        <v>558</v>
+      </c>
+      <c r="C48" s="11">
+        <v>40</v>
+      </c>
+      <c r="D48" s="11">
+        <v>493</v>
+      </c>
+      <c r="E48" s="11">
+        <v>1301</v>
+      </c>
+      <c r="F48" s="11">
+        <v>106</v>
+      </c>
+      <c r="G48" s="11">
+        <v>1301</v>
+      </c>
+      <c r="H48" s="11">
+        <v>978</v>
+      </c>
+      <c r="I48" s="11">
+        <v>30</v>
+      </c>
+      <c r="J48" s="11">
+        <v>931</v>
+      </c>
+      <c r="K48" s="11">
+        <v>842</v>
+      </c>
+      <c r="L48" s="11">
+        <v>15</v>
+      </c>
+      <c r="M48" s="11">
+        <v>813</v>
+      </c>
+      <c r="N48" s="11">
+        <v>1045</v>
+      </c>
+      <c r="O48" s="11">
+        <v>31</v>
+      </c>
+      <c r="P48" s="11">
+        <v>985</v>
+      </c>
+      <c r="Q48" s="11">
+        <v>1054</v>
+      </c>
+      <c r="R48" s="11">
+        <v>14</v>
+      </c>
+      <c r="S48" s="11">
+        <v>1007</v>
+      </c>
+      <c r="T48" s="11">
+        <v>899</v>
+      </c>
+      <c r="U48" s="11">
+        <v>31</v>
+      </c>
+      <c r="V48" s="11">
+        <v>890</v>
+      </c>
+      <c r="W48" s="11">
+        <v>1577</v>
+      </c>
+      <c r="X48" s="11">
+        <v>26</v>
+      </c>
+      <c r="Y48" s="11">
+        <v>1471</v>
+      </c>
+      <c r="Z48" s="11">
+        <v>1003</v>
+      </c>
+      <c r="AA48" s="11">
+        <v>3</v>
+      </c>
+      <c r="AB48" s="11">
+        <v>1050</v>
+      </c>
+      <c r="AC48" s="11">
+        <v>671</v>
+      </c>
+      <c r="AD48" s="11">
+        <v>25</v>
+      </c>
+      <c r="AE48" s="11">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4768,6 +4866,156 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<p:Policy xmlns:p="office.server.policy" id="" local="true">
+  <p:Name>ONS Document</p:Name>
+  <p:Description/>
+  <p:Statement/>
+  <p:PolicyItems>
+    <p:PolicyItem featureId="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration" staticId="0x01010035E33599CC8D1E47A037F474646B1D58|2057524105" UniqueId="d097a687-1114-45fc-89d8-799351d0ef20">
+      <p:Name>Retention</p:Name>
+      <p:Description>Automatic scheduling of content for processing, and performing a retention action on content that has reached its due date.</p:Description>
+      <p:CustomData>
+        <Schedules nextStageId="2">
+          <Schedule type="Default">
+            <stages>
+              <data stageId="1">
+                <formula id="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration.Formula.BuiltIn">
+                  <number>100</number>
+                  <property>Retention_x0020_Date</property>
+                  <period>years</period>
+                </formula>
+                <action type="action" id="ONS-RetentionAction"/>
+              </data>
+            </stages>
+          </Schedule>
+        </Schedules>
+      </p:CustomData>
+    </p:PolicyItem>
+  </p:PolicyItems>
+</p:Policy>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>101</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.Policy, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>102</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.Policy, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>103</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.Policy, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>104</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.Policy, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10009</Type>
+    <SequenceNumber>105</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.Policy, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="a7dd7a64-f5c5-4f30-b8c4-f5626f639d1b" ContentTypeId="0x01010035E33599CC8D1E47A037F474646B1D58" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ONS Document" ma:contentTypeID="0x01010035E33599CC8D1E47A037F474646B1D5800765C09E86B6F9B4CB8C5B4D9E66FE95C" ma:contentTypeVersion="75" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="832f6075ec282772df59d4104850d381">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="e14115de-03ae-49b5-af01-31035404c456" xmlns:ns4="dc303f24-2943-4ba3-b258-fc561e2477ee" xmlns:ns6="39b8a52d-d8b9-47ff-a8c3-c8931ddf8d60" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f2d612bf7cad990eae8aa64dc4bb0a3b" ns1:_="" ns3:_="" ns4:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4989,47 +5237,17 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
+  <xsnLocation/>
+  <cached>True</cached>
+  <openByDefault>True</openByDefault>
+  <xsnScope/>
+</customXsn>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<p:Policy xmlns:p="office.server.policy" id="" local="true">
-  <p:Name>ONS Document</p:Name>
-  <p:Description/>
-  <p:Statement/>
-  <p:PolicyItems>
-    <p:PolicyItem featureId="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration" staticId="0x01010035E33599CC8D1E47A037F474646B1D58|2057524105" UniqueId="d097a687-1114-45fc-89d8-799351d0ef20">
-      <p:Name>Retention</p:Name>
-      <p:Description>Automatic scheduling of content for processing, and performing a retention action on content that has reached its due date.</p:Description>
-      <p:CustomData>
-        <Schedules nextStageId="2">
-          <Schedule type="Default">
-            <stages>
-              <data stageId="1">
-                <formula id="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration.Formula.BuiltIn">
-                  <number>100</number>
-                  <property>Retention_x0020_Date</property>
-                  <period>years</period>
-                </formula>
-                <action type="action" id="ONS-RetentionAction"/>
-              </data>
-            </stages>
-          </Schedule>
-        </Schedules>
-      </p:CustomData>
-    </p:PolicyItem>
-  </p:PolicyItems>
-</p:Policy>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item7.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <o5359087ad404c199aee74686ab194d3 xmlns="e14115de-03ae-49b5-af01-31035404c456">
@@ -5047,136 +5265,48 @@
     </TaxKeywordTaxHTField>
     <EDRMSOwner xmlns="dc303f24-2943-4ba3-b258-fc561e2477ee" xsi:nil="true"/>
     <Retention xmlns="dc303f24-2943-4ba3-b258-fc561e2477ee">0</Retention>
-    <_dlc_DocId xmlns="39b8a52d-d8b9-47ff-a8c3-c8931ddf8d60">D5PZWENCX5VS-1990262282-19436</_dlc_DocId>
+    <_dlc_DocId xmlns="39b8a52d-d8b9-47ff-a8c3-c8931ddf8d60">D5PZWENCX5VS-1990262282-19502</_dlc_DocId>
     <_dlc_DocIdUrl xmlns="39b8a52d-d8b9-47ff-a8c3-c8931ddf8d60">
-      <Url>https://share.sp.ons.statistics.gov.uk/sites/HALE/AnalysisDissem/_layouts/15/DocIdRedir.aspx?ID=D5PZWENCX5VS-1990262282-19436</Url>
-      <Description>D5PZWENCX5VS-1990262282-19436</Description>
+      <Url>https://share.sp.ons.statistics.gov.uk/sites/HALE/AnalysisDissem/_layouts/15/DocIdRedir.aspx?ID=D5PZWENCX5VS-1990262282-19502</Url>
+      <Description>D5PZWENCX5VS-1990262282-19502</Description>
     </_dlc_DocIdUrl>
   </documentManagement>
 </p:properties>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>101</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.Policy, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>102</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.Policy, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>103</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.Policy, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>104</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.Policy, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10009</Type>
-    <SequenceNumber>105</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.Policy, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{749AD1A7-CA45-4D2F-86A6-214E891EC06D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="office.server.policy"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="a7dd7a64-f5c5-4f30-b8c4-f5626f639d1b" ContentTypeId="0x01010035E33599CC8D1E47A037F474646B1D58" PreviousValue="false"/>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{441010EA-DFE6-4A3C-A10F-D9ACA7287002}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item7.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
-  <xsnLocation/>
-  <cached>True</cached>
-  <openByDefault>True</openByDefault>
-  <xsnScope/>
-</customXsn>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{374BC146-A1DF-43E7-8445-F2544E83A785}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11E9C4F9-7D97-4608-B51B-7C230E14038E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8032249C-39A7-4B9D-8A6A-F7DD60C6C3CF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5197,61 +5327,29 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11E9C4F9-7D97-4608-B51B-7C230E14038E}">
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{297A6E93-BE00-4530-862B-A3628E84E9E3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{749AD1A7-CA45-4D2F-86A6-214E891EC06D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="office.server.policy"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{350B13CF-AC82-425B-801C-0C643F05174E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="39b8a52d-d8b9-47ff-a8c3-c8931ddf8d60"/>
-    <ds:schemaRef ds:uri="e14115de-03ae-49b5-af01-31035404c456"/>
-    <ds:schemaRef ds:uri="dc303f24-2943-4ba3-b258-fc561e2477ee"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{441010EA-DFE6-4A3C-A10F-D9ACA7287002}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{374BC146-A1DF-43E7-8445-F2544E83A785}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps7.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{297A6E93-BE00-4530-862B-A3628E84E9E3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{350B13CF-AC82-425B-801C-0C643F05174E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
+    <ds:schemaRef ds:uri="e14115de-03ae-49b5-af01-31035404c456"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="39b8a52d-d8b9-47ff-a8c3-c8931ddf8d60"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="dc303f24-2943-4ba3-b258-fc561e2477ee"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/uk/ons/datadownload (2).xlsx
+++ b/uk/ons/datadownload (2).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\dvc1000-1099\dvc1010-weeklydeaths\fig4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\dvc1000-1099\dvc1024-weeklydeaths\fig4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8A46B5-54D3-4DD0-B66B-C44307F0645F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB5E90D-8C1B-4F5A-AE29-7A285C96AC15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{E4E900D1-D748-4E58-B008-C981EB2E2990}"/>
+    <workbookView xWindow="-24345" yWindow="2280" windowWidth="21600" windowHeight="11385" xr2:uid="{E4E900D1-D748-4E58-B008-C981EB2E2990}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
   <si>
     <t>North East</t>
   </si>
@@ -200,26 +200,29 @@
     <t>Week 37</t>
   </si>
   <si>
-    <t>1. Based on area of usual residence, boundaries correct as of August 2020.
+    <t>Week 38</t>
+  </si>
+  <si>
+    <t>Week 39</t>
+  </si>
+  <si>
+    <t>Week 40</t>
+  </si>
+  <si>
+    <t>1. Based on area of usual residence. Geographical boundaries are based on the most up-to-date information available at the time of publication.
 2. Figures exclude deaths of non-residents.
 3. Based on date a death was registered rather than occurred.
 4. All figures for 2020 are provisional.
 5. The International Classification of Diseases, Tenth Edition (ICD-10) definitions are as follows: coronavirus (COVID-19) (U07.1 and U07.2).</t>
   </si>
   <si>
-    <t>Week 38</t>
-  </si>
-  <si>
-    <t>Week 39</t>
-  </si>
-  <si>
-    <t>Number of deaths in Wales and regions in England, registered between 28 December 2019 to 2 October 2020</t>
-  </si>
-  <si>
-    <t>Week 40</t>
-  </si>
-  <si>
-    <t>Figure 4: The number of deaths in Week 40 increased in Wales and most of the English regions</t>
+    <t>Number of deaths in Wales and regions in England, registered between 28 December 2019 to 9 October 2020</t>
+  </si>
+  <si>
+    <t>Week 41</t>
+  </si>
+  <si>
+    <t>Figure 4: The number of deaths in Week 41 increased in most of the English regions but decreased in Wales</t>
   </si>
 </sst>
 </file>
@@ -307,7 +310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -321,9 +324,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -332,7 +333,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -650,34 +651,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F68DF2-C770-4051-9B1B-AABCDF9E7609}">
-  <dimension ref="A1:CK50"/>
+  <dimension ref="A1:AE51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -685,65 +688,64 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+    <row r="6" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12" t="s">
+      <c r="B7" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12" t="s">
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12" t="s">
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12" t="s">
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12" t="s">
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12" t="s">
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12" t="s">
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12" t="s">
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="12" t="s">
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="12"/>
-      <c r="AF7" s="7"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
     </row>
-    <row r="8" spans="1:33" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+    <row r="8" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
       <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
@@ -834,10 +836,9 @@
       <c r="AE8" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AG8" s="7"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="1">
@@ -931,7 +932,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -1026,7 +1027,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -1121,7 +1122,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -1216,7 +1217,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -1311,7 +1312,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -1406,7 +1407,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -1501,7 +1502,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -3116,7 +3117,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="33" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>41</v>
       </c>
@@ -3211,41 +3212,41 @@
         <v>573</v>
       </c>
     </row>
-    <row r="34" spans="1:89" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="1">
         <v>485</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="1">
         <v>32</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="1">
         <v>482</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="1">
         <v>1300</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="1">
         <v>120</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="1">
         <v>1210</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="1">
         <v>922</v>
       </c>
-      <c r="I34" s="9">
+      <c r="I34" s="1">
         <v>69</v>
       </c>
-      <c r="J34" s="9">
+      <c r="J34" s="1">
         <v>926</v>
       </c>
-      <c r="K34" s="9">
+      <c r="K34" s="1">
         <v>800</v>
       </c>
-      <c r="L34" s="9">
+      <c r="L34" s="1">
         <v>89</v>
       </c>
       <c r="M34" s="1">
@@ -3306,41 +3307,41 @@
         <v>571</v>
       </c>
     </row>
-    <row r="35" spans="1:89" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="1">
         <v>515</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="1">
         <v>28</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="1">
         <v>481</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="1">
         <v>1225</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="1">
         <v>100</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="1">
         <v>1278</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="1">
         <v>875</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="1">
         <v>58</v>
       </c>
-      <c r="J35" s="9">
+      <c r="J35" s="1">
         <v>895</v>
       </c>
-      <c r="K35" s="9">
+      <c r="K35" s="1">
         <v>827</v>
       </c>
-      <c r="L35" s="9">
+      <c r="L35" s="1">
         <v>62</v>
       </c>
       <c r="M35" s="1">
@@ -3401,1463 +3402,1354 @@
         <v>555</v>
       </c>
     </row>
-    <row r="36" spans="1:89" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="1">
         <v>468</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="1">
         <v>8</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="1">
         <v>481</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="1">
         <v>1154</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="1">
         <v>62</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="1">
         <v>1243</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H36" s="1">
         <v>848</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="1">
         <v>47</v>
       </c>
-      <c r="J36" s="9">
+      <c r="J36" s="1">
         <v>917</v>
       </c>
-      <c r="K36" s="9">
+      <c r="K36" s="1">
         <v>771</v>
       </c>
-      <c r="L36" s="9">
+      <c r="L36" s="1">
         <v>34</v>
       </c>
-      <c r="M36" s="9">
+      <c r="M36" s="1">
         <v>794</v>
       </c>
-      <c r="N36" s="9">
+      <c r="N36" s="1">
         <v>902</v>
       </c>
-      <c r="O36" s="9">
+      <c r="O36" s="1">
         <v>48</v>
       </c>
-      <c r="P36" s="9">
+      <c r="P36" s="1">
         <v>953</v>
       </c>
-      <c r="Q36" s="9">
+      <c r="Q36" s="1">
         <v>999</v>
       </c>
-      <c r="R36" s="9">
+      <c r="R36" s="1">
         <v>48</v>
       </c>
-      <c r="S36" s="9">
+      <c r="S36" s="1">
         <v>997</v>
       </c>
-      <c r="T36" s="9">
+      <c r="T36" s="1">
         <v>803</v>
       </c>
-      <c r="U36" s="9">
+      <c r="U36" s="1">
         <v>28</v>
       </c>
-      <c r="V36" s="9">
+      <c r="V36" s="1">
         <v>860</v>
       </c>
-      <c r="W36" s="9">
+      <c r="W36" s="1">
         <v>1228</v>
       </c>
-      <c r="X36" s="9">
+      <c r="X36" s="1">
         <v>62</v>
       </c>
-      <c r="Y36" s="9">
+      <c r="Y36" s="1">
         <v>1397</v>
       </c>
-      <c r="Z36" s="9">
+      <c r="Z36" s="1">
         <v>930</v>
       </c>
-      <c r="AA36" s="9">
+      <c r="AA36" s="1">
         <v>7</v>
       </c>
-      <c r="AB36" s="9">
+      <c r="AB36" s="1">
         <v>1006</v>
       </c>
-      <c r="AC36" s="9">
+      <c r="AC36" s="1">
         <v>572</v>
       </c>
-      <c r="AD36" s="9">
+      <c r="AD36" s="1">
         <v>22</v>
       </c>
-      <c r="AE36" s="9">
+      <c r="AE36" s="1">
         <v>578</v>
       </c>
     </row>
-    <row r="37" spans="1:89" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="1">
         <v>445</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="1">
         <v>8</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="1">
         <v>493</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="1">
         <v>1159</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F37" s="1">
         <v>47</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G37" s="1">
         <v>1227</v>
       </c>
-      <c r="H37" s="9">
+      <c r="H37" s="1">
         <v>843</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I37" s="1">
         <v>30</v>
       </c>
-      <c r="J37" s="9">
+      <c r="J37" s="1">
         <v>874</v>
       </c>
-      <c r="K37" s="9">
+      <c r="K37" s="1">
         <v>816</v>
       </c>
-      <c r="L37" s="9">
+      <c r="L37" s="1">
         <v>31</v>
       </c>
-      <c r="M37" s="9">
+      <c r="M37" s="1">
         <v>792</v>
       </c>
-      <c r="N37" s="9">
+      <c r="N37" s="1">
         <v>956</v>
       </c>
-      <c r="O37" s="9">
+      <c r="O37" s="1">
         <v>25</v>
       </c>
-      <c r="P37" s="9">
+      <c r="P37" s="1">
         <v>931</v>
       </c>
-      <c r="Q37" s="9">
+      <c r="Q37" s="1">
         <v>945</v>
       </c>
-      <c r="R37" s="9">
+      <c r="R37" s="1">
         <v>45</v>
       </c>
-      <c r="S37" s="9">
+      <c r="S37" s="1">
         <v>971</v>
       </c>
-      <c r="T37" s="9">
+      <c r="T37" s="1">
         <v>806</v>
       </c>
-      <c r="U37" s="9">
+      <c r="U37" s="1">
         <v>18</v>
       </c>
-      <c r="V37" s="9">
+      <c r="V37" s="1">
         <v>866</v>
       </c>
-      <c r="W37" s="9">
+      <c r="W37" s="1">
         <v>1339</v>
       </c>
-      <c r="X37" s="9">
+      <c r="X37" s="1">
         <v>69</v>
       </c>
-      <c r="Y37" s="9">
+      <c r="Y37" s="1">
         <v>1371</v>
       </c>
-      <c r="Z37" s="9">
+      <c r="Z37" s="1">
         <v>953</v>
       </c>
-      <c r="AA37" s="9">
+      <c r="AA37" s="1">
         <v>11</v>
       </c>
-      <c r="AB37" s="9">
+      <c r="AB37" s="1">
         <v>977</v>
       </c>
-      <c r="AC37" s="9">
+      <c r="AC37" s="1">
         <v>550</v>
       </c>
-      <c r="AD37" s="9">
+      <c r="AD37" s="1">
         <v>11</v>
       </c>
-      <c r="AE37" s="9">
+      <c r="AE37" s="1">
         <v>557</v>
       </c>
     </row>
-    <row r="38" spans="1:89" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="1">
         <v>493</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="1">
         <v>4</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="1">
         <v>480</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="1">
         <v>1197</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="1">
         <v>39</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38" s="1">
         <v>1210</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H38" s="1">
         <v>817</v>
       </c>
-      <c r="I38" s="9">
+      <c r="I38" s="1">
         <v>32</v>
       </c>
-      <c r="J38" s="9">
+      <c r="J38" s="1">
         <v>888</v>
       </c>
-      <c r="K38" s="9">
+      <c r="K38" s="1">
         <v>798</v>
       </c>
-      <c r="L38" s="9">
+      <c r="L38" s="1">
         <v>35</v>
       </c>
-      <c r="M38" s="9">
+      <c r="M38" s="1">
         <v>754</v>
       </c>
-      <c r="N38" s="9">
+      <c r="N38" s="1">
         <v>964</v>
       </c>
-      <c r="O38" s="9">
+      <c r="O38" s="1">
         <v>15</v>
       </c>
-      <c r="P38" s="9">
+      <c r="P38" s="1">
         <v>916</v>
       </c>
-      <c r="Q38" s="9">
+      <c r="Q38" s="1">
         <v>951</v>
       </c>
-      <c r="R38" s="9">
+      <c r="R38" s="1">
         <v>23</v>
       </c>
-      <c r="S38" s="9">
+      <c r="S38" s="1">
         <v>986</v>
       </c>
-      <c r="T38" s="9">
+      <c r="T38" s="1">
         <v>816</v>
       </c>
-      <c r="U38" s="9">
+      <c r="U38" s="1">
         <v>16</v>
       </c>
-      <c r="V38" s="9">
+      <c r="V38" s="1">
         <v>869</v>
       </c>
-      <c r="W38" s="9">
+      <c r="W38" s="1">
         <v>1340</v>
       </c>
-      <c r="X38" s="9">
+      <c r="X38" s="1">
         <v>40</v>
       </c>
-      <c r="Y38" s="9">
+      <c r="Y38" s="1">
         <v>1385</v>
       </c>
-      <c r="Z38" s="9">
+      <c r="Z38" s="1">
         <v>941</v>
       </c>
-      <c r="AA38" s="9">
+      <c r="AA38" s="1">
         <v>5</v>
       </c>
-      <c r="AB38" s="9">
+      <c r="AB38" s="1">
         <v>964</v>
       </c>
-      <c r="AC38" s="9">
+      <c r="AC38" s="1">
         <v>565</v>
       </c>
-      <c r="AD38" s="9">
+      <c r="AD38" s="1">
         <v>7</v>
       </c>
-      <c r="AE38" s="9">
+      <c r="AE38" s="1">
         <v>566</v>
       </c>
     </row>
-    <row r="39" spans="1:89" x14ac:dyDescent="0.2">
-      <c r="A39" s="10" t="s">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="1">
         <v>507</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="1">
         <v>5</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="1">
         <v>487</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="1">
         <v>1272</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="1">
         <v>32</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G39" s="1">
         <v>1233</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H39" s="1">
         <v>837</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I39" s="1">
         <v>23</v>
       </c>
-      <c r="J39" s="9">
+      <c r="J39" s="1">
         <v>874</v>
       </c>
-      <c r="K39" s="9">
+      <c r="K39" s="1">
         <v>729</v>
       </c>
-      <c r="L39" s="9">
+      <c r="L39" s="1">
         <v>23</v>
       </c>
-      <c r="M39" s="9">
+      <c r="M39" s="1">
         <v>770</v>
       </c>
-      <c r="N39" s="9">
+      <c r="N39" s="1">
         <v>902</v>
       </c>
-      <c r="O39" s="9">
+      <c r="O39" s="1">
         <v>17</v>
       </c>
-      <c r="P39" s="9">
+      <c r="P39" s="1">
         <v>940</v>
       </c>
-      <c r="Q39" s="9">
+      <c r="Q39" s="1">
         <v>949</v>
       </c>
-      <c r="R39" s="9">
+      <c r="R39" s="1">
         <v>14</v>
       </c>
-      <c r="S39" s="9">
+      <c r="S39" s="1">
         <v>980</v>
       </c>
-      <c r="T39" s="9">
+      <c r="T39" s="1">
         <v>773</v>
       </c>
-      <c r="U39" s="9">
+      <c r="U39" s="1">
         <v>22</v>
       </c>
-      <c r="V39" s="9">
+      <c r="V39" s="1">
         <v>838</v>
       </c>
-      <c r="W39" s="9">
+      <c r="W39" s="1">
         <v>1447</v>
       </c>
-      <c r="X39" s="9">
+      <c r="X39" s="1">
         <v>45</v>
       </c>
-      <c r="Y39" s="9">
+      <c r="Y39" s="1">
         <v>1339</v>
       </c>
-      <c r="Z39" s="9">
+      <c r="Z39" s="1">
         <v>988</v>
       </c>
-      <c r="AA39" s="9">
+      <c r="AA39" s="1">
         <v>2</v>
       </c>
-      <c r="AB39" s="9">
+      <c r="AB39" s="1">
         <v>976</v>
       </c>
-      <c r="AC39" s="9">
+      <c r="AC39" s="1">
         <v>531</v>
       </c>
-      <c r="AD39" s="9">
+      <c r="AD39" s="1">
         <v>10</v>
       </c>
-      <c r="AE39" s="9">
+      <c r="AE39" s="1">
         <v>572</v>
       </c>
-      <c r="AF39" s="7"/>
-      <c r="AG39" s="7"/>
-      <c r="AH39" s="7"/>
-      <c r="AI39" s="7"/>
-      <c r="AJ39" s="7"/>
-      <c r="AK39" s="7"/>
-      <c r="AL39" s="7"/>
-      <c r="AM39" s="7"/>
-      <c r="AN39" s="7"/>
-      <c r="AO39" s="7"/>
-      <c r="AP39" s="7"/>
     </row>
-    <row r="40" spans="1:89" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="1">
         <v>486</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="1">
         <v>5</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="1">
         <v>482</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="1">
         <v>1211</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="1">
         <v>33</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="1">
         <v>1204</v>
       </c>
-      <c r="H40" s="9">
+      <c r="H40" s="1">
         <v>851</v>
       </c>
-      <c r="I40" s="9">
+      <c r="I40" s="1">
         <v>16</v>
       </c>
-      <c r="J40" s="9">
+      <c r="J40" s="1">
         <v>900</v>
       </c>
-      <c r="K40" s="9">
+      <c r="K40" s="1">
         <v>798</v>
       </c>
-      <c r="L40" s="9">
+      <c r="L40" s="1">
         <v>16</v>
       </c>
-      <c r="M40" s="9">
+      <c r="M40" s="1">
         <v>761</v>
       </c>
-      <c r="N40" s="9">
+      <c r="N40" s="1">
         <v>933</v>
       </c>
-      <c r="O40" s="9">
+      <c r="O40" s="1">
         <v>13</v>
       </c>
-      <c r="P40" s="9">
+      <c r="P40" s="1">
         <v>939</v>
       </c>
-      <c r="Q40" s="9">
+      <c r="Q40" s="1">
         <v>955</v>
       </c>
-      <c r="R40" s="9">
+      <c r="R40" s="1">
         <v>11</v>
       </c>
-      <c r="S40" s="9">
+      <c r="S40" s="1">
         <v>1000</v>
       </c>
-      <c r="T40" s="9">
+      <c r="T40" s="1">
         <v>832</v>
       </c>
-      <c r="U40" s="9">
+      <c r="U40" s="1">
         <v>8</v>
       </c>
-      <c r="V40" s="9">
+      <c r="V40" s="1">
         <v>871</v>
       </c>
-      <c r="W40" s="9">
+      <c r="W40" s="1">
         <v>1370</v>
       </c>
-      <c r="X40" s="9">
+      <c r="X40" s="1">
         <v>24</v>
       </c>
-      <c r="Y40" s="9">
+      <c r="Y40" s="1">
         <v>1373</v>
       </c>
-      <c r="Z40" s="9">
+      <c r="Z40" s="1">
         <v>929</v>
       </c>
-      <c r="AA40" s="9">
+      <c r="AA40" s="1">
         <v>2</v>
       </c>
-      <c r="AB40" s="9">
+      <c r="AB40" s="1">
         <v>972</v>
       </c>
-      <c r="AC40" s="9">
+      <c r="AC40" s="1">
         <v>563</v>
       </c>
-      <c r="AD40" s="9">
+      <c r="AD40" s="1">
         <v>24</v>
       </c>
-      <c r="AE40" s="9">
+      <c r="AE40" s="1">
         <v>571</v>
       </c>
-      <c r="AF40" s="7"/>
-      <c r="AG40" s="7"/>
-      <c r="AH40" s="7"/>
-      <c r="AI40" s="7"/>
-      <c r="AJ40" s="7"/>
-      <c r="AK40" s="7"/>
-      <c r="AL40" s="7"/>
-      <c r="AM40" s="7"/>
-      <c r="AN40" s="7"/>
-      <c r="AO40" s="7"/>
-      <c r="AP40" s="7"/>
     </row>
-    <row r="41" spans="1:89" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="1">
         <v>520</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="1">
         <v>5</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="1">
         <v>468</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="1">
         <v>1304</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F41" s="1">
         <v>33</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G41" s="1">
         <v>1239</v>
       </c>
-      <c r="H41" s="9">
+      <c r="H41" s="1">
         <v>853</v>
       </c>
-      <c r="I41" s="9">
+      <c r="I41" s="1">
         <v>13</v>
       </c>
-      <c r="J41" s="9">
+      <c r="J41" s="1">
         <v>872</v>
       </c>
-      <c r="K41" s="9">
+      <c r="K41" s="1">
         <v>829</v>
       </c>
-      <c r="L41" s="9">
+      <c r="L41" s="1">
         <v>6</v>
       </c>
-      <c r="M41" s="9">
+      <c r="M41" s="1">
         <v>754</v>
       </c>
-      <c r="N41" s="9">
+      <c r="N41" s="1">
         <v>923</v>
       </c>
-      <c r="O41" s="9">
+      <c r="O41" s="1">
         <v>14</v>
       </c>
-      <c r="P41" s="9">
+      <c r="P41" s="1">
         <v>943</v>
       </c>
-      <c r="Q41" s="9">
+      <c r="Q41" s="1">
         <v>1006</v>
       </c>
-      <c r="R41" s="9">
+      <c r="R41" s="1">
         <v>11</v>
       </c>
-      <c r="S41" s="9">
+      <c r="S41" s="1">
         <v>992</v>
       </c>
-      <c r="T41" s="9">
+      <c r="T41" s="1">
         <v>928</v>
       </c>
-      <c r="U41" s="9">
+      <c r="U41" s="1">
         <v>18</v>
       </c>
-      <c r="V41" s="9">
+      <c r="V41" s="1">
         <v>880</v>
       </c>
-      <c r="W41" s="9">
+      <c r="W41" s="1">
         <v>1395</v>
       </c>
-      <c r="X41" s="9">
+      <c r="X41" s="1">
         <v>21</v>
       </c>
-      <c r="Y41" s="9">
+      <c r="Y41" s="1">
         <v>1377</v>
       </c>
-      <c r="Z41" s="9">
+      <c r="Z41" s="1">
         <v>1009</v>
       </c>
-      <c r="AA41" s="9">
+      <c r="AA41" s="1">
         <v>4</v>
       </c>
-      <c r="AB41" s="9">
+      <c r="AB41" s="1">
         <v>967</v>
       </c>
-      <c r="AC41" s="9">
+      <c r="AC41" s="1">
         <v>617</v>
       </c>
-      <c r="AD41" s="9">
+      <c r="AD41" s="1">
         <v>14</v>
       </c>
-      <c r="AE41" s="9">
+      <c r="AE41" s="1">
         <v>564</v>
       </c>
-      <c r="AF41" s="7"/>
-      <c r="AG41" s="7"/>
-      <c r="AH41" s="7"/>
-      <c r="AI41" s="7"/>
-      <c r="AJ41" s="7"/>
-      <c r="AK41" s="7"/>
-      <c r="AL41" s="7"/>
-      <c r="AM41" s="7"/>
     </row>
-    <row r="42" spans="1:89" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="1">
         <v>479</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="1">
         <v>4</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="1">
         <v>488</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="1">
         <v>1269</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F42" s="1">
         <v>33</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G42" s="1">
         <v>1222</v>
       </c>
-      <c r="H42" s="9">
+      <c r="H42" s="1">
         <v>870</v>
       </c>
-      <c r="I42" s="9">
+      <c r="I42" s="1">
         <v>12</v>
       </c>
-      <c r="J42" s="9">
+      <c r="J42" s="1">
         <v>893</v>
       </c>
-      <c r="K42" s="9">
+      <c r="K42" s="1">
         <v>780</v>
       </c>
-      <c r="L42" s="9">
+      <c r="L42" s="1">
         <v>21</v>
       </c>
-      <c r="M42" s="9">
+      <c r="M42" s="1">
         <v>766</v>
       </c>
-      <c r="N42" s="9">
+      <c r="N42" s="1">
         <v>1028</v>
       </c>
-      <c r="O42" s="9">
+      <c r="O42" s="1">
         <v>10</v>
       </c>
-      <c r="P42" s="9">
+      <c r="P42" s="1">
         <v>975</v>
       </c>
-      <c r="Q42" s="9">
+      <c r="Q42" s="1">
         <v>1024</v>
       </c>
-      <c r="R42" s="9">
+      <c r="R42" s="1">
         <v>7</v>
       </c>
-      <c r="S42" s="9">
+      <c r="S42" s="1">
         <v>979</v>
       </c>
-      <c r="T42" s="9">
+      <c r="T42" s="1">
         <v>920</v>
       </c>
-      <c r="U42" s="9">
+      <c r="U42" s="1">
         <v>10</v>
       </c>
-      <c r="V42" s="9">
+      <c r="V42" s="1">
         <v>853</v>
       </c>
-      <c r="W42" s="9">
+      <c r="W42" s="1">
         <v>1608</v>
       </c>
-      <c r="X42" s="9">
+      <c r="X42" s="1">
         <v>24</v>
       </c>
-      <c r="Y42" s="9">
+      <c r="Y42" s="1">
         <v>1413</v>
       </c>
-      <c r="Z42" s="9">
+      <c r="Z42" s="1">
         <v>1043</v>
       </c>
-      <c r="AA42" s="9">
+      <c r="AA42" s="1">
         <v>5</v>
       </c>
-      <c r="AB42" s="9">
+      <c r="AB42" s="1">
         <v>973</v>
       </c>
-      <c r="AC42" s="9">
+      <c r="AC42" s="1">
         <v>594</v>
       </c>
-      <c r="AD42" s="9">
+      <c r="AD42" s="1">
         <v>11</v>
       </c>
-      <c r="AE42" s="9">
+      <c r="AE42" s="1">
         <v>573</v>
       </c>
-      <c r="AF42" s="7"/>
-      <c r="AG42" s="7"/>
-      <c r="AH42" s="7"/>
-      <c r="AI42" s="7"/>
-      <c r="AJ42" s="7"/>
-      <c r="AK42" s="7"/>
-      <c r="AL42" s="7"/>
-      <c r="AM42" s="7"/>
-      <c r="AN42" s="7"/>
-      <c r="AO42" s="7"/>
-      <c r="AP42" s="7"/>
-      <c r="AQ42" s="7"/>
-      <c r="AR42" s="7"/>
-      <c r="AS42" s="7"/>
-      <c r="AT42" s="7"/>
-      <c r="AU42" s="7"/>
-      <c r="AV42" s="7"/>
-      <c r="AW42" s="7"/>
-      <c r="AX42" s="7"/>
-      <c r="AY42" s="7"/>
-      <c r="AZ42" s="7"/>
-      <c r="BA42" s="7"/>
-      <c r="BB42" s="7"/>
-      <c r="BC42" s="7"/>
-      <c r="BD42" s="7"/>
-      <c r="BE42" s="7"/>
-      <c r="BF42" s="7"/>
-      <c r="BG42" s="7"/>
-      <c r="BH42" s="7"/>
-      <c r="BI42" s="7"/>
-      <c r="BJ42" s="7"/>
-      <c r="BK42" s="7"/>
-      <c r="BL42" s="7"/>
-      <c r="BM42" s="7"/>
-      <c r="BN42" s="7"/>
-      <c r="BO42" s="7"/>
-      <c r="BP42" s="7"/>
-      <c r="BQ42" s="7"/>
-      <c r="BR42" s="7"/>
-      <c r="BS42" s="7"/>
-      <c r="BT42" s="7"/>
-      <c r="BU42" s="7"/>
-      <c r="BV42" s="7"/>
-      <c r="BW42" s="7"/>
-      <c r="BX42" s="7"/>
-      <c r="BY42" s="7"/>
-      <c r="BZ42" s="7"/>
-      <c r="CA42" s="7"/>
-      <c r="CB42" s="7"/>
-      <c r="CC42" s="7"/>
-      <c r="CD42" s="7"/>
-      <c r="CE42" s="7"/>
-      <c r="CF42" s="7"/>
-      <c r="CG42" s="7"/>
-      <c r="CH42" s="7"/>
-      <c r="CI42" s="7"/>
-      <c r="CJ42" s="7"/>
-      <c r="CK42" s="7"/>
     </row>
-    <row r="43" spans="1:89" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43" s="1">
         <v>455</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="1">
         <v>2</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="1">
         <v>436</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="1">
         <v>1148</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F43" s="1">
         <v>34</v>
       </c>
-      <c r="G43" s="9">
+      <c r="G43" s="1">
         <v>1141</v>
       </c>
-      <c r="H43" s="9">
+      <c r="H43" s="1">
         <v>922</v>
       </c>
-      <c r="I43" s="9">
+      <c r="I43" s="1">
         <v>13</v>
       </c>
-      <c r="J43" s="9">
+      <c r="J43" s="1">
         <v>829</v>
       </c>
-      <c r="K43" s="9">
+      <c r="K43" s="1">
         <v>724</v>
       </c>
-      <c r="L43" s="9">
+      <c r="L43" s="1">
         <v>6</v>
       </c>
-      <c r="M43" s="9">
+      <c r="M43" s="1">
         <v>683</v>
       </c>
-      <c r="N43" s="9">
+      <c r="N43" s="1">
         <v>945</v>
       </c>
-      <c r="O43" s="9">
+      <c r="O43" s="1">
         <v>5</v>
       </c>
-      <c r="P43" s="9">
+      <c r="P43" s="1">
         <v>799</v>
       </c>
-      <c r="Q43" s="9">
+      <c r="Q43" s="1">
         <v>951</v>
       </c>
-      <c r="R43" s="9">
+      <c r="R43" s="1">
         <v>16</v>
       </c>
-      <c r="S43" s="9">
+      <c r="S43" s="1">
         <v>885</v>
       </c>
-      <c r="T43" s="9">
+      <c r="T43" s="1">
         <v>810</v>
       </c>
-      <c r="U43" s="9">
+      <c r="U43" s="1">
         <v>4</v>
       </c>
-      <c r="V43" s="9">
+      <c r="V43" s="1">
         <v>788</v>
       </c>
-      <c r="W43" s="9">
+      <c r="W43" s="1">
         <v>1511</v>
       </c>
-      <c r="X43" s="9">
+      <c r="X43" s="1">
         <v>11</v>
       </c>
-      <c r="Y43" s="9">
+      <c r="Y43" s="1">
         <v>1246</v>
       </c>
-      <c r="Z43" s="9">
+      <c r="Z43" s="1">
         <v>959</v>
       </c>
-      <c r="AA43" s="9">
+      <c r="AA43" s="1">
         <v>6</v>
       </c>
-      <c r="AB43" s="9">
+      <c r="AB43" s="1">
         <v>866</v>
       </c>
-      <c r="AC43" s="9">
+      <c r="AC43" s="1">
         <v>591</v>
       </c>
-      <c r="AD43" s="9">
+      <c r="AD43" s="1">
         <v>3</v>
       </c>
-      <c r="AE43" s="9">
+      <c r="AE43" s="1">
         <v>539</v>
       </c>
-      <c r="AF43" s="7"/>
-      <c r="AG43" s="7"/>
-      <c r="AH43" s="7"/>
-      <c r="AI43" s="7"/>
-      <c r="AJ43" s="7"/>
-      <c r="AK43" s="7"/>
-      <c r="AL43" s="7"/>
-      <c r="AM43" s="7"/>
-      <c r="AN43" s="7"/>
-      <c r="AO43" s="7"/>
-      <c r="AP43" s="7"/>
-      <c r="AQ43" s="7"/>
-      <c r="AR43" s="7"/>
-      <c r="AS43" s="7"/>
-      <c r="AT43" s="7"/>
-      <c r="AU43" s="7"/>
-      <c r="AV43" s="7"/>
-      <c r="AW43" s="7"/>
-      <c r="AX43" s="7"/>
-      <c r="AY43" s="7"/>
-      <c r="AZ43" s="7"/>
-      <c r="BA43" s="7"/>
-      <c r="BB43" s="7"/>
-      <c r="BC43" s="7"/>
-      <c r="BD43" s="7"/>
-      <c r="BE43" s="7"/>
-      <c r="BF43" s="7"/>
-      <c r="BG43" s="7"/>
-      <c r="BH43" s="7"/>
-      <c r="BI43" s="7"/>
-      <c r="BJ43" s="7"/>
-      <c r="BK43" s="7"/>
-      <c r="BL43" s="7"/>
-      <c r="BM43" s="7"/>
-      <c r="BN43" s="7"/>
-      <c r="BO43" s="7"/>
-      <c r="BP43" s="7"/>
-      <c r="BQ43" s="7"/>
-      <c r="BR43" s="7"/>
-      <c r="BS43" s="7"/>
-      <c r="BT43" s="7"/>
-      <c r="BU43" s="7"/>
-      <c r="BV43" s="7"/>
-      <c r="BW43" s="7"/>
-      <c r="BX43" s="7"/>
-      <c r="BY43" s="7"/>
-      <c r="BZ43" s="7"/>
-      <c r="CA43" s="7"/>
-      <c r="CB43" s="7"/>
-      <c r="CC43" s="7"/>
-      <c r="CD43" s="7"/>
-      <c r="CE43" s="7"/>
-      <c r="CF43" s="7"/>
-      <c r="CG43" s="7"/>
-      <c r="CH43" s="7"/>
-      <c r="CI43" s="7"/>
-      <c r="CJ43" s="7"/>
-      <c r="CK43" s="7"/>
     </row>
-    <row r="44" spans="1:89" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="1">
         <v>431</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="1">
         <v>5</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="1">
         <v>487</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="1">
         <v>1057</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F44" s="1">
         <v>13</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G44" s="1">
         <v>1213</v>
       </c>
-      <c r="H44" s="9">
+      <c r="H44" s="1">
         <v>780</v>
       </c>
-      <c r="I44" s="9">
+      <c r="I44" s="1">
         <v>10</v>
       </c>
-      <c r="J44" s="9">
+      <c r="J44" s="1">
         <v>906</v>
       </c>
-      <c r="K44" s="9">
+      <c r="K44" s="1">
         <v>640</v>
       </c>
-      <c r="L44" s="9">
+      <c r="L44" s="1">
         <v>10</v>
       </c>
-      <c r="M44" s="9">
+      <c r="M44" s="1">
         <v>797</v>
       </c>
-      <c r="N44" s="9">
+      <c r="N44" s="1">
         <v>770</v>
       </c>
-      <c r="O44" s="9">
+      <c r="O44" s="1">
         <v>9</v>
       </c>
-      <c r="P44" s="9">
+      <c r="P44" s="1">
         <v>942</v>
       </c>
-      <c r="Q44" s="9">
+      <c r="Q44" s="1">
         <v>806</v>
       </c>
-      <c r="R44" s="9">
+      <c r="R44" s="1">
         <v>6</v>
       </c>
-      <c r="S44" s="9">
+      <c r="S44" s="1">
         <v>1003</v>
       </c>
-      <c r="T44" s="9">
+      <c r="T44" s="1">
         <v>737</v>
       </c>
-      <c r="U44" s="9">
+      <c r="U44" s="1">
         <v>2</v>
       </c>
-      <c r="V44" s="9">
+      <c r="V44" s="1">
         <v>884</v>
       </c>
-      <c r="W44" s="9">
+      <c r="W44" s="1">
         <v>1208</v>
       </c>
-      <c r="X44" s="9">
+      <c r="X44" s="1">
         <v>17</v>
       </c>
-      <c r="Y44" s="9">
+      <c r="Y44" s="1">
         <v>1400</v>
       </c>
-      <c r="Z44" s="9">
+      <c r="Z44" s="1">
         <v>803</v>
       </c>
-      <c r="AA44" s="9">
+      <c r="AA44" s="1">
         <v>2</v>
       </c>
-      <c r="AB44" s="9">
+      <c r="AB44" s="1">
         <v>973</v>
       </c>
-      <c r="AC44" s="9">
+      <c r="AC44" s="1">
         <v>488</v>
       </c>
-      <c r="AD44" s="9">
+      <c r="AD44" s="1">
         <v>4</v>
       </c>
-      <c r="AE44" s="9">
+      <c r="AE44" s="1">
         <v>552</v>
       </c>
-      <c r="AF44" s="7"/>
-      <c r="AG44" s="7"/>
-      <c r="AH44" s="7"/>
-      <c r="AI44" s="7"/>
-      <c r="AJ44" s="7"/>
-      <c r="AK44" s="7"/>
-      <c r="AL44" s="7"/>
-      <c r="AM44" s="7"/>
-      <c r="AN44" s="7"/>
-      <c r="AO44" s="7"/>
-      <c r="AP44" s="7"/>
-      <c r="AQ44" s="7"/>
-      <c r="AR44" s="7"/>
-      <c r="AS44" s="7"/>
-      <c r="AT44" s="7"/>
-      <c r="AU44" s="7"/>
-      <c r="AV44" s="7"/>
-      <c r="AW44" s="7"/>
-      <c r="AX44" s="7"/>
-      <c r="AY44" s="7"/>
-      <c r="AZ44" s="7"/>
-      <c r="BA44" s="7"/>
-      <c r="BB44" s="7"/>
-      <c r="BC44" s="7"/>
-      <c r="BD44" s="7"/>
-      <c r="BE44" s="7"/>
-      <c r="BF44" s="7"/>
-      <c r="BG44" s="7"/>
-      <c r="BH44" s="7"/>
-      <c r="BI44" s="7"/>
-      <c r="BJ44" s="7"/>
-      <c r="BK44" s="7"/>
-      <c r="BL44" s="7"/>
-      <c r="BM44" s="7"/>
-      <c r="BN44" s="7"/>
-      <c r="BO44" s="7"/>
-      <c r="BP44" s="7"/>
-      <c r="BQ44" s="7"/>
-      <c r="BR44" s="7"/>
-      <c r="BS44" s="7"/>
-      <c r="BT44" s="7"/>
-      <c r="BU44" s="7"/>
-      <c r="BV44" s="7"/>
-      <c r="BW44" s="7"/>
-      <c r="BX44" s="7"/>
-      <c r="BY44" s="7"/>
-      <c r="BZ44" s="7"/>
-      <c r="CA44" s="7"/>
-      <c r="CB44" s="7"/>
-      <c r="CC44" s="7"/>
-      <c r="CD44" s="7"/>
-      <c r="CE44" s="7"/>
-      <c r="CF44" s="7"/>
-      <c r="CG44" s="7"/>
-      <c r="CH44" s="7"/>
-      <c r="CI44" s="7"/>
-      <c r="CJ44" s="7"/>
-      <c r="CK44" s="7"/>
     </row>
-    <row r="45" spans="1:89" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="1">
         <v>502</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="1">
         <v>3</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="1">
         <v>490</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E45" s="1">
         <v>1229</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F45" s="1">
         <v>30</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G45" s="1">
         <v>1266</v>
       </c>
-      <c r="H45" s="9">
+      <c r="H45" s="1">
         <v>952</v>
       </c>
-      <c r="I45" s="9">
+      <c r="I45" s="1">
         <v>14</v>
       </c>
-      <c r="J45" s="9">
+      <c r="J45" s="1">
         <v>901</v>
       </c>
-      <c r="K45" s="9">
+      <c r="K45" s="1">
         <v>867</v>
       </c>
-      <c r="L45" s="9">
+      <c r="L45" s="1">
         <v>10</v>
       </c>
-      <c r="M45" s="9">
+      <c r="M45" s="1">
         <v>779</v>
       </c>
-      <c r="N45" s="9">
+      <c r="N45" s="1">
         <v>1021</v>
       </c>
-      <c r="O45" s="9">
+      <c r="O45" s="1">
         <v>7</v>
       </c>
-      <c r="P45" s="9">
+      <c r="P45" s="1">
         <v>958</v>
       </c>
-      <c r="Q45" s="9">
+      <c r="Q45" s="1">
         <v>1052</v>
       </c>
-      <c r="R45" s="9">
+      <c r="R45" s="1">
         <v>8</v>
       </c>
-      <c r="S45" s="9">
+      <c r="S45" s="1">
         <v>999</v>
       </c>
-      <c r="T45" s="9">
+      <c r="T45" s="1">
         <v>898</v>
       </c>
-      <c r="U45" s="9">
+      <c r="U45" s="1">
         <v>6</v>
       </c>
-      <c r="V45" s="9">
+      <c r="V45" s="1">
         <v>865</v>
       </c>
-      <c r="W45" s="9">
+      <c r="W45" s="1">
         <v>1610</v>
       </c>
-      <c r="X45" s="9">
+      <c r="X45" s="1">
         <v>12</v>
       </c>
-      <c r="Y45" s="9">
+      <c r="Y45" s="1">
         <v>1438</v>
       </c>
-      <c r="Z45" s="9">
+      <c r="Z45" s="1">
         <v>1084</v>
       </c>
-      <c r="AA45" s="9">
+      <c r="AA45" s="1">
         <v>7</v>
       </c>
-      <c r="AB45" s="9">
+      <c r="AB45" s="1">
         <v>1013</v>
       </c>
-      <c r="AC45" s="9">
+      <c r="AC45" s="1">
         <v>578</v>
       </c>
-      <c r="AD45" s="9">
+      <c r="AD45" s="1">
         <v>1</v>
       </c>
-      <c r="AE45" s="9">
+      <c r="AE45" s="1">
         <v>577</v>
       </c>
     </row>
-    <row r="46" spans="1:89" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="1">
+        <v>465</v>
+      </c>
+      <c r="C46" s="1">
+        <v>8</v>
+      </c>
+      <c r="D46" s="1">
+        <v>474</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1287</v>
+      </c>
+      <c r="F46" s="1">
+        <v>39</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1227</v>
+      </c>
+      <c r="H46" s="1">
+        <v>939</v>
+      </c>
+      <c r="I46" s="1">
+        <v>21</v>
+      </c>
+      <c r="J46" s="1">
+        <v>905</v>
+      </c>
+      <c r="K46" s="1">
+        <v>795</v>
+      </c>
+      <c r="L46" s="1">
+        <v>14</v>
+      </c>
+      <c r="M46" s="1">
+        <v>779</v>
+      </c>
+      <c r="N46" s="1">
+        <v>1051</v>
+      </c>
+      <c r="O46" s="1">
+        <v>15</v>
+      </c>
+      <c r="P46" s="1">
+        <v>953</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>1023</v>
+      </c>
+      <c r="R46" s="1">
+        <v>8</v>
+      </c>
+      <c r="S46" s="1">
+        <v>1011</v>
+      </c>
+      <c r="T46" s="1">
+        <v>844</v>
+      </c>
+      <c r="U46" s="1">
+        <v>13</v>
+      </c>
+      <c r="V46" s="1">
+        <v>882</v>
+      </c>
+      <c r="W46" s="1">
+        <v>1530</v>
+      </c>
+      <c r="X46" s="1">
+        <v>11</v>
+      </c>
+      <c r="Y46" s="1">
+        <v>1431</v>
+      </c>
+      <c r="Z46" s="1">
+        <v>1021</v>
+      </c>
+      <c r="AA46" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB46" s="1">
+        <v>1001</v>
+      </c>
+      <c r="AC46" s="1">
+        <v>555</v>
+      </c>
+      <c r="AD46" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE46" s="1">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B46" s="9">
-        <v>465</v>
-      </c>
-      <c r="C46" s="9">
+      <c r="B47" s="1">
+        <v>514</v>
+      </c>
+      <c r="C47" s="1">
+        <v>13</v>
+      </c>
+      <c r="D47" s="1">
+        <v>497</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1271</v>
+      </c>
+      <c r="F47" s="1">
+        <v>60</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1270</v>
+      </c>
+      <c r="H47" s="1">
+        <v>965</v>
+      </c>
+      <c r="I47" s="1">
+        <v>29</v>
+      </c>
+      <c r="J47" s="1">
+        <v>909</v>
+      </c>
+      <c r="K47" s="1">
+        <v>825</v>
+      </c>
+      <c r="L47" s="1">
+        <v>11</v>
+      </c>
+      <c r="M47" s="1">
+        <v>794</v>
+      </c>
+      <c r="N47" s="1">
+        <v>1036</v>
+      </c>
+      <c r="O47" s="1">
+        <v>33</v>
+      </c>
+      <c r="P47" s="1">
+        <v>984</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>963</v>
+      </c>
+      <c r="R47" s="1">
+        <v>10</v>
+      </c>
+      <c r="S47" s="1">
+        <v>980</v>
+      </c>
+      <c r="T47" s="1">
+        <v>869</v>
+      </c>
+      <c r="U47" s="1">
+        <v>23</v>
+      </c>
+      <c r="V47" s="1">
+        <v>872</v>
+      </c>
+      <c r="W47" s="1">
+        <v>1521</v>
+      </c>
+      <c r="X47" s="1">
+        <v>16</v>
+      </c>
+      <c r="Y47" s="1">
+        <v>1426</v>
+      </c>
+      <c r="Z47" s="1">
+        <v>1041</v>
+      </c>
+      <c r="AA47" s="1">
         <v>8</v>
       </c>
-      <c r="D46" s="9">
-        <v>474</v>
-      </c>
-      <c r="E46" s="9">
-        <v>1287</v>
-      </c>
-      <c r="F46" s="9">
-        <v>39</v>
-      </c>
-      <c r="G46" s="9">
-        <v>1227</v>
-      </c>
-      <c r="H46" s="9">
-        <v>939</v>
-      </c>
-      <c r="I46" s="9">
+      <c r="AB47" s="1">
+        <v>1011</v>
+      </c>
+      <c r="AC47" s="1">
+        <v>617</v>
+      </c>
+      <c r="AD47" s="1">
+        <v>12</v>
+      </c>
+      <c r="AE47" s="1">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="1">
+        <v>558</v>
+      </c>
+      <c r="C48" s="1">
+        <v>40</v>
+      </c>
+      <c r="D48" s="1">
+        <v>493</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1301</v>
+      </c>
+      <c r="F48" s="1">
+        <v>106</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1301</v>
+      </c>
+      <c r="H48" s="1">
+        <v>978</v>
+      </c>
+      <c r="I48" s="1">
+        <v>30</v>
+      </c>
+      <c r="J48" s="1">
+        <v>931</v>
+      </c>
+      <c r="K48" s="1">
+        <v>842</v>
+      </c>
+      <c r="L48" s="1">
+        <v>15</v>
+      </c>
+      <c r="M48" s="1">
+        <v>813</v>
+      </c>
+      <c r="N48" s="1">
+        <v>1045</v>
+      </c>
+      <c r="O48" s="1">
+        <v>31</v>
+      </c>
+      <c r="P48" s="1">
+        <v>985</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>1054</v>
+      </c>
+      <c r="R48" s="1">
+        <v>14</v>
+      </c>
+      <c r="S48" s="1">
+        <v>1007</v>
+      </c>
+      <c r="T48" s="1">
+        <v>899</v>
+      </c>
+      <c r="U48" s="1">
+        <v>31</v>
+      </c>
+      <c r="V48" s="1">
+        <v>890</v>
+      </c>
+      <c r="W48" s="1">
+        <v>1577</v>
+      </c>
+      <c r="X48" s="1">
+        <v>26</v>
+      </c>
+      <c r="Y48" s="1">
+        <v>1471</v>
+      </c>
+      <c r="Z48" s="1">
+        <v>1003</v>
+      </c>
+      <c r="AA48" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB48" s="1">
+        <v>1050</v>
+      </c>
+      <c r="AC48" s="1">
+        <v>671</v>
+      </c>
+      <c r="AD48" s="1">
+        <v>25</v>
+      </c>
+      <c r="AE48" s="1">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="9">
+        <v>544</v>
+      </c>
+      <c r="C49" s="9">
+        <v>60</v>
+      </c>
+      <c r="D49" s="9">
+        <v>510</v>
+      </c>
+      <c r="E49" s="9">
+        <v>1367</v>
+      </c>
+      <c r="F49" s="9">
+        <v>153</v>
+      </c>
+      <c r="G49" s="9">
+        <v>1328</v>
+      </c>
+      <c r="H49" s="9">
+        <v>1067</v>
+      </c>
+      <c r="I49" s="9">
+        <v>52</v>
+      </c>
+      <c r="J49" s="9">
+        <v>967</v>
+      </c>
+      <c r="K49" s="9">
+        <v>884</v>
+      </c>
+      <c r="L49" s="9">
         <v>21</v>
       </c>
-      <c r="J46" s="9">
-        <v>905</v>
-      </c>
-      <c r="K46" s="9">
-        <v>795</v>
-      </c>
-      <c r="L46" s="9">
-        <v>14</v>
-      </c>
-      <c r="M46" s="9">
-        <v>779</v>
-      </c>
-      <c r="N46" s="9">
-        <v>1051</v>
-      </c>
-      <c r="O46" s="9">
-        <v>15</v>
-      </c>
-      <c r="P46" s="9">
-        <v>953</v>
-      </c>
-      <c r="Q46" s="9">
-        <v>1023</v>
-      </c>
-      <c r="R46" s="9">
-        <v>8</v>
-      </c>
-      <c r="S46" s="9">
-        <v>1011</v>
-      </c>
-      <c r="T46" s="9">
-        <v>844</v>
-      </c>
-      <c r="U46" s="9">
-        <v>13</v>
-      </c>
-      <c r="V46" s="9">
-        <v>882</v>
-      </c>
-      <c r="W46" s="9">
-        <v>1530</v>
-      </c>
-      <c r="X46" s="9">
+      <c r="M49" s="9">
+        <v>824</v>
+      </c>
+      <c r="N49" s="9">
+        <v>1053</v>
+      </c>
+      <c r="O49" s="9">
+        <v>43</v>
+      </c>
+      <c r="P49" s="9">
+        <v>985</v>
+      </c>
+      <c r="Q49" s="9">
+        <v>1019</v>
+      </c>
+      <c r="R49" s="9">
         <v>11</v>
       </c>
-      <c r="Y46" s="9">
-        <v>1431</v>
-      </c>
-      <c r="Z46" s="9">
-        <v>1021</v>
-      </c>
-      <c r="AA46" s="9">
-        <v>5</v>
-      </c>
-      <c r="AB46" s="9">
-        <v>1001</v>
-      </c>
-      <c r="AC46" s="9">
-        <v>555</v>
-      </c>
-      <c r="AD46" s="9">
-        <v>5</v>
-      </c>
-      <c r="AE46" s="9">
-        <v>575</v>
+      <c r="S49" s="9">
+        <v>1081</v>
+      </c>
+      <c r="T49" s="9">
+        <v>902</v>
+      </c>
+      <c r="U49" s="9">
+        <v>34</v>
+      </c>
+      <c r="V49" s="9">
+        <v>914</v>
+      </c>
+      <c r="W49" s="9">
+        <v>1462</v>
+      </c>
+      <c r="X49" s="9">
+        <v>21</v>
+      </c>
+      <c r="Y49" s="9">
+        <v>1505</v>
+      </c>
+      <c r="Z49" s="9">
+        <v>1010</v>
+      </c>
+      <c r="AA49" s="9">
+        <v>6</v>
+      </c>
+      <c r="AB49" s="9">
+        <v>1054</v>
+      </c>
+      <c r="AC49" s="9">
+        <v>638</v>
+      </c>
+      <c r="AD49" s="9">
+        <v>37</v>
+      </c>
+      <c r="AE49" s="9">
+        <v>615</v>
       </c>
     </row>
-    <row r="47" spans="1:89" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B47" s="9">
-        <v>514</v>
-      </c>
-      <c r="C47" s="9">
-        <v>13</v>
-      </c>
-      <c r="D47" s="9">
-        <v>497</v>
-      </c>
-      <c r="E47" s="9">
-        <v>1271</v>
-      </c>
-      <c r="F47" s="9">
-        <v>60</v>
-      </c>
-      <c r="G47" s="9">
-        <v>1270</v>
-      </c>
-      <c r="H47" s="9">
-        <v>965</v>
-      </c>
-      <c r="I47" s="9">
-        <v>29</v>
-      </c>
-      <c r="J47" s="9">
-        <v>909</v>
-      </c>
-      <c r="K47" s="9">
-        <v>825</v>
-      </c>
-      <c r="L47" s="9">
-        <v>11</v>
-      </c>
-      <c r="M47" s="9">
-        <v>794</v>
-      </c>
-      <c r="N47" s="9">
-        <v>1036</v>
-      </c>
-      <c r="O47" s="9">
-        <v>33</v>
-      </c>
-      <c r="P47" s="9">
-        <v>984</v>
-      </c>
-      <c r="Q47" s="9">
-        <v>963</v>
-      </c>
-      <c r="R47" s="9">
-        <v>10</v>
-      </c>
-      <c r="S47" s="9">
-        <v>980</v>
-      </c>
-      <c r="T47" s="9">
-        <v>869</v>
-      </c>
-      <c r="U47" s="9">
-        <v>23</v>
-      </c>
-      <c r="V47" s="9">
-        <v>872</v>
-      </c>
-      <c r="W47" s="9">
-        <v>1521</v>
-      </c>
-      <c r="X47" s="9">
-        <v>16</v>
-      </c>
-      <c r="Y47" s="9">
-        <v>1426</v>
-      </c>
-      <c r="Z47" s="9">
-        <v>1041</v>
-      </c>
-      <c r="AA47" s="9">
-        <v>8</v>
-      </c>
-      <c r="AB47" s="9">
-        <v>1011</v>
-      </c>
-      <c r="AC47" s="9">
-        <v>617</v>
-      </c>
-      <c r="AD47" s="9">
-        <v>12</v>
-      </c>
-      <c r="AE47" s="9">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="48" spans="1:89" s="9" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B48" s="11">
-        <v>558</v>
-      </c>
-      <c r="C48" s="11">
-        <v>40</v>
-      </c>
-      <c r="D48" s="11">
-        <v>493</v>
-      </c>
-      <c r="E48" s="11">
-        <v>1301</v>
-      </c>
-      <c r="F48" s="11">
-        <v>106</v>
-      </c>
-      <c r="G48" s="11">
-        <v>1301</v>
-      </c>
-      <c r="H48" s="11">
-        <v>978</v>
-      </c>
-      <c r="I48" s="11">
-        <v>30</v>
-      </c>
-      <c r="J48" s="11">
-        <v>931</v>
-      </c>
-      <c r="K48" s="11">
-        <v>842</v>
-      </c>
-      <c r="L48" s="11">
-        <v>15</v>
-      </c>
-      <c r="M48" s="11">
-        <v>813</v>
-      </c>
-      <c r="N48" s="11">
-        <v>1045</v>
-      </c>
-      <c r="O48" s="11">
-        <v>31</v>
-      </c>
-      <c r="P48" s="11">
-        <v>985</v>
-      </c>
-      <c r="Q48" s="11">
-        <v>1054</v>
-      </c>
-      <c r="R48" s="11">
-        <v>14</v>
-      </c>
-      <c r="S48" s="11">
-        <v>1007</v>
-      </c>
-      <c r="T48" s="11">
-        <v>899</v>
-      </c>
-      <c r="U48" s="11">
-        <v>31</v>
-      </c>
-      <c r="V48" s="11">
-        <v>890</v>
-      </c>
-      <c r="W48" s="11">
-        <v>1577</v>
-      </c>
-      <c r="X48" s="11">
-        <v>26</v>
-      </c>
-      <c r="Y48" s="11">
-        <v>1471</v>
-      </c>
-      <c r="Z48" s="11">
-        <v>1003</v>
-      </c>
-      <c r="AA48" s="11">
-        <v>3</v>
-      </c>
-      <c r="AB48" s="11">
-        <v>1050</v>
-      </c>
-      <c r="AC48" s="11">
-        <v>671</v>
-      </c>
-      <c r="AD48" s="11">
-        <v>25</v>
-      </c>
-      <c r="AE48" s="11">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="AC7:AE7"/>
     <mergeCell ref="N7:P7"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="K7:M7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="W7:Y7"/>
-    <mergeCell ref="Z7:AB7"/>
-    <mergeCell ref="AC7:AE7"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4866,156 +4758,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<p:Policy xmlns:p="office.server.policy" id="" local="true">
-  <p:Name>ONS Document</p:Name>
-  <p:Description/>
-  <p:Statement/>
-  <p:PolicyItems>
-    <p:PolicyItem featureId="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration" staticId="0x01010035E33599CC8D1E47A037F474646B1D58|2057524105" UniqueId="d097a687-1114-45fc-89d8-799351d0ef20">
-      <p:Name>Retention</p:Name>
-      <p:Description>Automatic scheduling of content for processing, and performing a retention action on content that has reached its due date.</p:Description>
-      <p:CustomData>
-        <Schedules nextStageId="2">
-          <Schedule type="Default">
-            <stages>
-              <data stageId="1">
-                <formula id="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration.Formula.BuiltIn">
-                  <number>100</number>
-                  <property>Retention_x0020_Date</property>
-                  <period>years</period>
-                </formula>
-                <action type="action" id="ONS-RetentionAction"/>
-              </data>
-            </stages>
-          </Schedule>
-        </Schedules>
-      </p:CustomData>
-    </p:PolicyItem>
-  </p:PolicyItems>
-</p:Policy>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>101</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.Policy, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>102</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.Policy, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>103</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.Policy, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>104</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.Policy, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10009</Type>
-    <SequenceNumber>105</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.Policy, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="a7dd7a64-f5c5-4f30-b8c4-f5626f639d1b" ContentTypeId="0x01010035E33599CC8D1E47A037F474646B1D58" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ONS Document" ma:contentTypeID="0x01010035E33599CC8D1E47A037F474646B1D5800765C09E86B6F9B4CB8C5B4D9E66FE95C" ma:contentTypeVersion="75" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="832f6075ec282772df59d4104850d381">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="e14115de-03ae-49b5-af01-31035404c456" xmlns:ns4="dc303f24-2943-4ba3-b258-fc561e2477ee" xmlns:ns6="39b8a52d-d8b9-47ff-a8c3-c8931ddf8d60" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f2d612bf7cad990eae8aa64dc4bb0a3b" ns1:_="" ns3:_="" ns4:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5237,17 +4979,117 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
-  <xsnLocation/>
-  <cached>True</cached>
-  <openByDefault>True</openByDefault>
-  <xsnScope/>
-</customXsn>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="a7dd7a64-f5c5-4f30-b8c4-f5626f639d1b" ContentTypeId="0x01010035E33599CC8D1E47A037F474646B1D58" PreviousValue="false"/>
 </file>
 
-<file path=customXml/item7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>101</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.Policy, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>102</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.Policy, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>103</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.Policy, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>104</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.Policy, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10009</Type>
+    <SequenceNumber>105</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.Policy, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <o5359087ad404c199aee74686ab194d3 xmlns="e14115de-03ae-49b5-af01-31035404c456">
@@ -5265,48 +5107,66 @@
     </TaxKeywordTaxHTField>
     <EDRMSOwner xmlns="dc303f24-2943-4ba3-b258-fc561e2477ee" xsi:nil="true"/>
     <Retention xmlns="dc303f24-2943-4ba3-b258-fc561e2477ee">0</Retention>
-    <_dlc_DocId xmlns="39b8a52d-d8b9-47ff-a8c3-c8931ddf8d60">D5PZWENCX5VS-1990262282-19502</_dlc_DocId>
+    <_dlc_DocId xmlns="39b8a52d-d8b9-47ff-a8c3-c8931ddf8d60">D5PZWENCX5VS-1990262282-19615</_dlc_DocId>
     <_dlc_DocIdUrl xmlns="39b8a52d-d8b9-47ff-a8c3-c8931ddf8d60">
-      <Url>https://share.sp.ons.statistics.gov.uk/sites/HALE/AnalysisDissem/_layouts/15/DocIdRedir.aspx?ID=D5PZWENCX5VS-1990262282-19502</Url>
-      <Description>D5PZWENCX5VS-1990262282-19502</Description>
+      <Url>https://share.sp.ons.statistics.gov.uk/sites/HALE/AnalysisDissem/_layouts/15/DocIdRedir.aspx?ID=D5PZWENCX5VS-1990262282-19615</Url>
+      <Description>D5PZWENCX5VS-1990262282-19615</Description>
     </_dlc_DocIdUrl>
   </documentManagement>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{749AD1A7-CA45-4D2F-86A6-214E891EC06D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="office.server.policy"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<p:Policy xmlns:p="office.server.policy" id="" local="true">
+  <p:Name>ONS Document</p:Name>
+  <p:Description/>
+  <p:Statement/>
+  <p:PolicyItems>
+    <p:PolicyItem featureId="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration" staticId="0x01010035E33599CC8D1E47A037F474646B1D58|2057524105" UniqueId="d097a687-1114-45fc-89d8-799351d0ef20">
+      <p:Name>Retention</p:Name>
+      <p:Description>Automatic scheduling of content for processing, and performing a retention action on content that has reached its due date.</p:Description>
+      <p:CustomData>
+        <Schedules nextStageId="2">
+          <Schedule type="Default">
+            <stages>
+              <data stageId="1">
+                <formula id="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration.Formula.BuiltIn">
+                  <number>100</number>
+                  <property>Retention_x0020_Date</property>
+                  <period>years</period>
+                </formula>
+                <action type="action" id="ONS-RetentionAction"/>
+              </data>
+            </stages>
+          </Schedule>
+        </Schedules>
+      </p:CustomData>
+    </p:PolicyItem>
+  </p:PolicyItems>
+</p:Policy>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{441010EA-DFE6-4A3C-A10F-D9ACA7287002}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{374BC146-A1DF-43E7-8445-F2544E83A785}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item7.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
+  <xsnLocation/>
+  <cached>True</cached>
+  <openByDefault>True</openByDefault>
+  <xsnScope/>
+</customXsn>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11E9C4F9-7D97-4608-B51B-7C230E14038E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8032249C-39A7-4B9D-8A6A-F7DD60C6C3CF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5327,29 +5187,61 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{374BC146-A1DF-43E7-8445-F2544E83A785}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{441010EA-DFE6-4A3C-A10F-D9ACA7287002}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{350B13CF-AC82-425B-801C-0C643F05174E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="dc303f24-2943-4ba3-b258-fc561e2477ee"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="39b8a52d-d8b9-47ff-a8c3-c8931ddf8d60"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="e14115de-03ae-49b5-af01-31035404c456"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{749AD1A7-CA45-4D2F-86A6-214E891EC06D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="office.server.policy"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11E9C4F9-7D97-4608-B51B-7C230E14038E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps7.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{297A6E93-BE00-4530-862B-A3628E84E9E3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps7.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{350B13CF-AC82-425B-801C-0C643F05174E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="e14115de-03ae-49b5-af01-31035404c456"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="39b8a52d-d8b9-47ff-a8c3-c8931ddf8d60"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="dc303f24-2943-4ba3-b258-fc561e2477ee"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>